--- a/工作日志-杨迎雪.xlsx
+++ b/工作日志-杨迎雪.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="13">
   <si>
     <t>选择年份:</t>
   </si>
@@ -100,15 +100,39 @@
     <t>后台用户管理页面排版(html+css)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后台用户管理页面排版，学习使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="9"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>axios</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="mmmm"/>
-    <numFmt numFmtId="179" formatCode="d"/>
-    <numFmt numFmtId="180" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="mmmm"/>
+    <numFmt numFmtId="177" formatCode="d"/>
+    <numFmt numFmtId="178" formatCode="mmmm\ yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -489,7 +513,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -498,7 +522,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,13 +531,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -523,8 +547,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -533,16 +557,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,10 +581,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,9 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1544,14 +1568,14 @@
     </row>
     <row r="3" spans="1:18" ht="57.75" customHeight="1">
       <c r="A3"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,1,1),"yyyy年 m月"))</f>
         <v>2019年 1月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -1811,24 +1835,24 @@
         <f>IF(DAY(JanSun1)=1,IF(AND(YEAR(JanSun1+30)=CalendarYear,MONTH(JanSun1+30)=1),JanSun1+30,""),IF(AND(YEAR(JanSun1+37)=CalendarYear,MONTH(JanSun1+37)=1),JanSun1+37,""))</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:18" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="3:5" ht="17.25" customHeight="1"/>
@@ -1914,14 +1938,14 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,10,1),"yyyy年 m月"))</f>
         <v>2019年 10月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -2169,23 +2193,23 @@
         <f>IF(DAY(OctSun1)=1,IF(AND(YEAR(OctSun1+30)=CalendarYear,MONTH(OctSun1+30)=10),OctSun1+30,""),IF(AND(YEAR(OctSun1+37)=CalendarYear,MONTH(OctSun1+37)=10),OctSun1+37,""))</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="3:5" ht="17.25" customHeight="1"/>
     <row r="19" spans="3:5" ht="21" customHeight="1">
@@ -2237,14 +2261,14 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,11,1),"yyyy年 m月"))</f>
         <v>2019年 11月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -2492,23 +2516,23 @@
         <f>IF(DAY(NovSun1)=1,IF(AND(YEAR(NovSun1+30)=CalendarYear,MONTH(NovSun1+30)=11),NovSun1+30,""),IF(AND(YEAR(NovSun1+37)=CalendarYear,MONTH(NovSun1+37)=11),NovSun1+37,""))</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="3:5" ht="17.25" customHeight="1"/>
     <row r="19" spans="3:5" ht="21" customHeight="1">
@@ -2560,14 +2584,14 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,12,1),"yyyy年 m月"))</f>
         <v>2019年 12月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -2815,23 +2839,23 @@
         <f>IF(DAY(DecSun1)=1,IF(AND(YEAR(DecSun1+30)=CalendarYear,MONTH(DecSun1+30)=12),DecSun1+30,""),IF(AND(YEAR(DecSun1+37)=CalendarYear,MONTH(DecSun1+37)=12),DecSun1+37,""))</f>
         <v>43830</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="3:5" ht="22.5" customHeight="1"/>
     <row r="19" spans="3:5" ht="21" customHeight="1">
@@ -2884,14 +2908,14 @@
     </row>
     <row r="3" spans="1:18" ht="57.75" customHeight="1">
       <c r="A3"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,4,1),"yyyy年 m月"))</f>
         <v>2019年 4月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -3151,24 +3175,24 @@
         <f>IF(DAY(FebSun1)=1,IF(AND(YEAR(FebSun1+30)=CalendarYear,MONTH(FebSun1+30)=2),FebSun1+30,""),IF(AND(YEAR(FebSun1+37)=CalendarYear,MONTH(FebSun1+37)=2),FebSun1+37,""))</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:18" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="3:5" ht="17.25" customHeight="1"/>
@@ -3221,14 +3245,14 @@
     </row>
     <row r="3" spans="1:16" ht="57.75" customHeight="1">
       <c r="A3"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,3,1),"yyyy年 m月"))</f>
         <v>2019年 3月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -3476,23 +3500,23 @@
         <f>IF(DAY(MarSun1)=1,IF(AND(YEAR(MarSun1+30)=CalendarYear,MONTH(MarSun1+30)=3),MarSun1+30,""),IF(AND(YEAR(MarSun1+37)=CalendarYear,MONTH(MarSun1+37)=3),MarSun1+37,""))</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="3:5" ht="17.25" customHeight="1"/>
     <row r="19" spans="3:5" ht="21" customHeight="1">
@@ -3524,7 +3548,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.25"/>
@@ -3545,14 +3569,14 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,4,1),"yyyy年 m月"))</f>
         <v>2019年 4月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -3660,13 +3684,15 @@
     <row r="8" spans="1:16" ht="55.5" customHeight="1">
       <c r="A8"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -3804,23 +3830,23 @@
         <f>IF(DAY(AprSun1)=1,IF(AND(YEAR(AprSun1+30)=CalendarYear,MONTH(AprSun1+30)=4),AprSun1+30,""),IF(AND(YEAR(AprSun1+37)=CalendarYear,MONTH(AprSun1+37)=4),AprSun1+37,""))</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="3:5" ht="17.25" customHeight="1"/>
     <row r="19" spans="3:5" ht="21" customHeight="1">
@@ -3838,7 +3864,7 @@
   <phoneticPr fontId="20" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup scale="69" orientation="landscape"/>
+  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3872,14 +3898,14 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,5,1),"yyyy年 m月"))</f>
         <v>2019年 5月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -4127,23 +4153,23 @@
         <f>IF(DAY(MaySun1)=1,IF(AND(YEAR(MaySun1+30)=CalendarYear,MONTH(MaySun1+30)=5),MaySun1+30,""),IF(AND(YEAR(MaySun1+37)=CalendarYear,MONTH(MaySun1+37)=5),MaySun1+37,""))</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="3:5" ht="17.25" customHeight="1"/>
     <row r="19" spans="3:5" ht="21" customHeight="1">
@@ -4195,14 +4221,14 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,6,1),"yyyy年 m月"))</f>
         <v>2019年 6月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -4450,23 +4476,23 @@
         <f>IF(DAY(JunSun1)=1,IF(AND(YEAR(JunSun1+30)=CalendarYear,MONTH(JunSun1+30)=6),JunSun1+30,""),IF(AND(YEAR(JunSun1+37)=CalendarYear,MONTH(JunSun1+37)=6),JunSun1+37,""))</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="3:5" ht="17.25" customHeight="1"/>
     <row r="19" spans="3:5" ht="21" customHeight="1">
@@ -4518,14 +4544,14 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,7,1),"yyyy年 m月"))</f>
         <v>2019年 7月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -4773,23 +4799,23 @@
         <f>IF(DAY(JulSun1)=1,IF(AND(YEAR(JulSun1+30)=CalendarYear,MONTH(JulSun1+30)=7),JulSun1+30,""),IF(AND(YEAR(JulSun1+37)=CalendarYear,MONTH(JulSun1+37)=7),JulSun1+37,""))</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="3:5" ht="17.25" customHeight="1"/>
     <row r="19" spans="3:5" ht="21" customHeight="1">
@@ -4841,14 +4867,14 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,8,1),"yyyy年 m月"))</f>
         <v>2019年 8月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -5096,23 +5122,23 @@
         <f>IF(DAY(AugSun1)=1,IF(AND(YEAR(AugSun1+30)=CalendarYear,MONTH(AugSun1+30)=8),AugSun1+30,""),IF(AND(YEAR(AugSun1+37)=CalendarYear,MONTH(AugSun1+37)=8),AugSun1+37,""))</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="3:5" ht="17.25" customHeight="1"/>
     <row r="19" spans="3:5" ht="21" customHeight="1">
@@ -5164,14 +5190,14 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="25" t="str">
         <f>UPPER(TEXT(DATE(CalendarYear,9,1),"yyyy年 m月"))</f>
         <v>2019年 9月</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="29.25" customHeight="1">
       <c r="B4" s="5" t="s">
@@ -5419,23 +5445,23 @@
         <f>IF(DAY(SepSun1)=1,IF(AND(YEAR(SepSun1+30)=CalendarYear,MONTH(SepSun1+30)=9),SepSun1+30,""),IF(AND(YEAR(SepSun1+37)=CalendarYear,MONTH(SepSun1+37)=9),SepSun1+37,""))</f>
         <v/>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:16" ht="55.5" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="3:5" ht="17.25" customHeight="1"/>
     <row r="19" spans="3:5" ht="21" customHeight="1">
